--- a/工作时间表/教师端工作时间表.xlsx
+++ b/工作时间表/教师端工作时间表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\gses\admin-console_rs\工作时间表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D0514D-53FF-417A-9004-90C5755E5CC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>课程／作业</t>
   </si>
@@ -36,81 +42,129 @@
     <t>直播</t>
   </si>
   <si>
+    <t>批改--添加评语</t>
+  </si>
+  <si>
+    <t>批改</t>
+  </si>
+  <si>
+    <t>批改视频预览</t>
+  </si>
+  <si>
+    <t>评语</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>直播页面</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>批改作业-未批改</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>某个标签点击进去详情</t>
+  </si>
+  <si>
+    <t>直播--历史直播</t>
+  </si>
+  <si>
+    <t>直播页面-连线</t>
+  </si>
+  <si>
+    <t>直播页面-未到</t>
+  </si>
+  <si>
+    <t>教师端</t>
+  </si>
+  <si>
+    <t>某节课程点击进入-课程详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>查看作业详情</t>
-  </si>
-  <si>
-    <t>批改--添加评语</t>
-  </si>
-  <si>
-    <t>批改</t>
-  </si>
-  <si>
-    <t>批改视频预览</t>
-  </si>
-  <si>
-    <t>评语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某学生所有作业提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/02/19星期二（2019/02/14定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/02/20星期三（2019/02/14定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/02/21星期四（2019/02/14定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/02/22星期五（2019/02/14定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业列表--老师批改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/02/25星期一（2019/02/15定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/02/29星期五（2019/02/19定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/02/26星期二（2019/02/16定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/02/27星期三（2019/02/17定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/02/28星期四（2019/02/18定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>确认提交</t>
-  </si>
-  <si>
-    <t>设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批改作业-已批改-已提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>视频查看</t>
-  </si>
-  <si>
-    <t>直播页面</t>
-  </si>
-  <si>
-    <t>作业列表--老师批改</t>
-  </si>
-  <si>
-    <t>首页</t>
-  </si>
-  <si>
-    <t>某节课程点击进入-课程详情页</t>
-  </si>
-  <si>
-    <t>某学生所有作业提交</t>
-  </si>
-  <si>
-    <t>批改作业-已批改-已提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>批改作业-继续修改</t>
-  </si>
-  <si>
-    <t>批改作业-未批改</t>
-  </si>
-  <si>
-    <t>详情</t>
-  </si>
-  <si>
-    <t>某个标签点击进去详情</t>
-  </si>
-  <si>
-    <t>直播--历史直播</t>
-  </si>
-  <si>
-    <t>直播页面-连线</t>
-  </si>
-  <si>
-    <t>直播页面-未到</t>
-  </si>
-  <si>
-    <t>教师端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,6 +174,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,13 +203,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,12 +217,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -489,268 +561,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" customWidth="1"/>
+    <col min="4" max="4" width="36.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="55" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="55.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="22" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1">
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1"/>
-    <row r="29" spans="1:3" ht="22" customHeight="1"/>
-    <row r="30" spans="1:3" ht="18" customHeight="1"/>
-    <row r="31" spans="1:3" ht="18" customHeight="1"/>
+    <row r="27" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A16"/>
@@ -759,8 +862,9 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
